--- a/artfynd/A 58512-2019.xlsx
+++ b/artfynd/A 58512-2019.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>75912803</v>
+        <v>79087787</v>
       </c>
       <c r="B2" t="n">
         <v>56395</v>
@@ -716,11 +716,15 @@
       <c r="I2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Gajbienåjvvie, Ly lm</t>
+          <t>Njuöniesvarie, Ly lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -730,7 +734,7 @@
         <v>7275130.787569438</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -754,7 +758,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -764,17 +768,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Födosökshack, "ringade träd"</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -789,19 +788,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>75912859</v>
+        <v>79087818</v>
       </c>
       <c r="B3" t="n">
         <v>81236</v>
@@ -840,7 +839,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Gajbienåjvvie, Ly lm</t>
+          <t>Njuöniesvarie, Ly lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -850,7 +849,7 @@
         <v>7275155.57796421</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -874,7 +873,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -884,7 +883,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -905,19 +904,19 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>75912806</v>
+        <v>79087802</v>
       </c>
       <c r="B4" t="n">
         <v>77506</v>
@@ -956,7 +955,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Gajbienåjvvie, Ly lm</t>
+          <t>Njuöniesvarie, Ly lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -966,7 +965,7 @@
         <v>7275130.787569438</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -990,7 +989,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1000,7 +999,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1021,19 +1020,19 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>75912810</v>
+        <v>79087805</v>
       </c>
       <c r="B5" t="n">
         <v>77588</v>
@@ -1072,7 +1071,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Gajbienåjvvie, Ly lm</t>
+          <t>Njuöniesvarie, Ly lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -1082,7 +1081,7 @@
         <v>7275130.787569438</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1106,7 +1105,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1116,7 +1115,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1137,12 +1136,12 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
@@ -1270,7 +1269,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>75912863</v>
+        <v>79087826</v>
       </c>
       <c r="B7" t="n">
         <v>77506</v>
@@ -1309,7 +1308,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Gajbienåjvvie, Ly lm</t>
+          <t>Njuöniesvarie, Ly lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1319,7 +1318,7 @@
         <v>7275155.57796421</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1343,7 +1342,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1353,7 +1352,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1374,19 +1373,19 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>75912815</v>
+        <v>79087808</v>
       </c>
       <c r="B8" t="n">
         <v>89356</v>
@@ -1425,7 +1424,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Gajbienåjvvie, Ly lm</t>
+          <t>Njuöniesvarie, Ly lm</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1435,7 +1434,7 @@
         <v>7275130.787569438</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1459,7 +1458,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1469,7 +1468,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1490,19 +1489,19 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>75912854</v>
+        <v>79087821</v>
       </c>
       <c r="B9" t="n">
         <v>56395</v>
@@ -1542,7 +1541,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Gajbienåjvvie, Ly lm</t>
+          <t>Njuöniesvarie, Ly lm</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1552,7 +1551,7 @@
         <v>7275155.57796421</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1576,7 +1575,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1586,17 +1585,12 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2017-08-06</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Födosökshack, "ringade träd"</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1611,12 +1605,12 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
